--- a/output/patents_classified_semantic.xlsx
+++ b/output/patents_classified_semantic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UTENTE\Documents\development\data-science\ai-patents-exposure\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B5C0405-591A-4594-B2D0-2A067CD93185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB817E2E-31CD-4058-B41E-A9518D8F3635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FC397BF9-04FE-40C5-B392-2EC2D1F07C4A}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3931" uniqueCount="3032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3946" uniqueCount="3045">
   <si>
     <t xml:space="preserve"> Receiving a first SIP notification associated with the conference at the second conference bridge through the first conference bridge based on the first SIP subscription request, wherein the first SIP notification based on the change is a state of the conference at the second conference bridge or a change the state of the second communication endpoint is sent, the first SIP notification containing conference plan information of the second conference bridge</t>
   </si>
@@ -9116,6 +9116,45 @@
   </si>
   <si>
     <t>0.4803</t>
+  </si>
+  <si>
+    <t>gpt5_primary</t>
+  </si>
+  <si>
+    <t>gpt5_secondary</t>
+  </si>
+  <si>
+    <t>['213', '215', '226']</t>
+  </si>
+  <si>
+    <t>Semantic</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>['252', '351']</t>
+  </si>
+  <si>
+    <t>First wrong, but second and third are good</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>partial</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>We should define a weighting method: managers and clerks should have less weight than professionals and technicians</t>
+  </si>
+  <si>
+    <t>['211', '213']</t>
+  </si>
+  <si>
+    <t>The first code is wrong, nevertheless the other codes are reasonable. We could define a strategy to assign a weight according to the second level or even the first level</t>
   </si>
 </sst>
 </file>
@@ -9258,7 +9297,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9438,6 +9477,24 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -9599,8 +9656,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -9978,13 +10038,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D02074-767F-4548-A7B8-75BC46BEFAF8}">
   <dimension ref="A1:S501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="13" max="13" width="8.1796875" customWidth="1"/>
+    <col min="14" max="14" width="7.26953125" customWidth="1"/>
+    <col min="16" max="16" width="9.7265625" customWidth="1"/>
+    <col min="17" max="17" width="16.08984375" customWidth="1"/>
+    <col min="18" max="18" width="13.26953125" customWidth="1"/>
+    <col min="19" max="19" width="14.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -10030,8 +10098,20 @@
       <c r="O1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P1" t="s">
+        <v>3032</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="R1" t="s">
+        <v>3035</v>
+      </c>
+      <c r="S1" t="s">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -10047,13 +10127,13 @@
       <c r="E2" t="s">
         <v>28</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>321</v>
       </c>
       <c r="G2" t="s">
         <v>29</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>221</v>
       </c>
       <c r="I2" t="s">
@@ -10077,8 +10157,17 @@
       <c r="O2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P2" s="1">
+        <v>221</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>3034</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -10094,19 +10183,19 @@
       <c r="E3" t="s">
         <v>37</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>133</v>
       </c>
       <c r="G3" t="s">
         <v>38</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>351</v>
       </c>
       <c r="I3" t="s">
         <v>39</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>252</v>
       </c>
       <c r="K3" t="s">
@@ -10124,8 +10213,20 @@
       <c r="O3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P3" s="1">
+        <v>251</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>3037</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>3040</v>
+      </c>
+      <c r="S3" t="s">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -10141,13 +10242,13 @@
       <c r="E4" t="s">
         <v>46</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>413</v>
       </c>
       <c r="G4" t="s">
         <v>47</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>133</v>
       </c>
       <c r="I4" t="s">
@@ -10171,8 +10272,20 @@
       <c r="O4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P4" s="1">
+        <v>251</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>3037</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>3041</v>
+      </c>
+      <c r="S4" t="s">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -10188,25 +10301,25 @@
       <c r="E5" t="s">
         <v>55</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>821</v>
       </c>
       <c r="G5" t="s">
         <v>56</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>215</v>
       </c>
       <c r="I5" t="s">
         <v>57</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <v>252</v>
       </c>
       <c r="K5" t="s">
         <v>58</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <v>311</v>
       </c>
       <c r="M5" t="s">
@@ -10218,8 +10331,20 @@
       <c r="O5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P5" s="1">
+        <v>215</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>3043</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>3041</v>
+      </c>
+      <c r="S5" t="s">
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -10266,7 +10391,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -10313,7 +10438,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -10360,7 +10485,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -10407,7 +10532,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -10454,7 +10579,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -10501,7 +10626,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>113</v>
       </c>
@@ -10548,7 +10673,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>121</v>
       </c>
@@ -10595,7 +10720,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>130</v>
       </c>
@@ -10642,7 +10767,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>139</v>
       </c>
@@ -10689,7 +10814,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>148</v>
       </c>
